--- a/10_レビュー/レビュー記録_阿部_2025年12月15日.xlsx
+++ b/10_レビュー/レビュー記録_阿部_2025年12月15日.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDC242301\Documents\卒業研究\10_レビュー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\sotuken242301\10_レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12929464-53CD-4307-A994-5FC987929A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25C349A-9E65-4696-8377-0F14E2284284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15492" yWindow="60" windowWidth="7752" windowHeight="12240" xr2:uid="{B5729C80-F964-450C-B0E5-72837C33B520}"/>
+    <workbookView xWindow="768" yWindow="720" windowWidth="7752" windowHeight="12240" xr2:uid="{B5729C80-F964-450C-B0E5-72837C33B520}"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー記録" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>参加者</t>
     <rPh sb="0" eb="3">
@@ -163,53 +163,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>東武伊勢崎線　運賃</t>
-    <rPh sb="0" eb="2">
-      <t>トウブ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>イセサキセン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ウンチン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新幹線ボタン</t>
-    <rPh sb="0" eb="3">
-      <t>シンカンセン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メインメニューに戻るボタンを追加</t>
-    <rPh sb="8" eb="9">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>継続　追加</t>
-    <rPh sb="0" eb="2">
-      <t>ケイゾク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>定期券をICカードのみ</t>
-    <rPh sb="0" eb="3">
-      <t>テイキケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>切符購入時に駅を表示</t>
     <rPh sb="0" eb="2">
       <t>キップ</t>
@@ -229,55 +182,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データグリッドビューで領収書の発行を行う</t>
-    <rPh sb="11" eb="14">
-      <t>リョウシュウショ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デモジット</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月単で選択　券売機　駅員PC</t>
-    <rPh sb="0" eb="1">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>タン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ケンバイキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>エキイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>乗り越し運賃</t>
-    <rPh sb="0" eb="1">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ウンチン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>定期券区間内か区間外</t>
     <rPh sb="0" eb="3">
       <t>テイキケン</t>
@@ -297,35 +201,200 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>更新日を表示</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名前生年月日を入力</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ICカード表</t>
     <rPh sb="5" eb="6">
       <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東武伊勢崎線を運賃だけ表示</t>
+    <rPh sb="0" eb="2">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>イセサキセン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ウンチン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>切符購入の新幹線のコンボボックスからボタンに変更</t>
+    <rPh sb="0" eb="4">
+      <t>キップコウニュウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シンカンセン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各確認画面にメインメニューに戻るボタンを追加</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定期券継続・更新機能の追加</t>
+    <rPh sb="0" eb="3">
+      <t>テイキケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書の定期券をICカードのみ</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>テイキケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データグリッドビューで選択し領収書の発行を行う</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>リョウシュウショ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デポジットを支払い金額に追加</t>
+    <rPh sb="6" eb="8">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定期券を月単で選択　券売機　駅員PC</t>
+    <rPh sb="0" eb="3">
+      <t>テイキケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ケンバイキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>エキイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>差額の表示を乗り越し運賃に変更</t>
+    <rPh sb="0" eb="2">
+      <t>サガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウンチン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常ICカードにも名前生年月日を入力</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改札、各確認画面に更新日を表示</t>
+    <rPh sb="0" eb="2">
+      <t>カイサツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -757,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC043C-8932-4DF6-AE1C-0E8E2671C937}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="74" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -818,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
@@ -832,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
@@ -846,9 +915,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
@@ -858,9 +929,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
@@ -870,9 +943,11 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
@@ -882,9 +957,11 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
@@ -894,9 +971,11 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
@@ -906,9 +985,11 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
@@ -918,9 +999,11 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
@@ -930,9 +1013,11 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
     </row>
@@ -942,9 +1027,11 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
     </row>
@@ -954,9 +1041,11 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
     </row>
@@ -968,7 +1057,9 @@
       <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
     </row>
@@ -978,9 +1069,11 @@
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="4"/>
     </row>

--- a/10_レビュー/レビュー記録_阿部_2025年12月15日.xlsx
+++ b/10_レビュー/レビュー記録_阿部_2025年12月15日.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\sotuken242301\10_レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25C349A-9E65-4696-8377-0F14E2284284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FC0E45-537C-42FE-92AE-537B25207339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="720" windowWidth="7752" windowHeight="12240" xr2:uid="{B5729C80-F964-450C-B0E5-72837C33B520}"/>
+    <workbookView xWindow="14100" yWindow="0" windowWidth="9048" windowHeight="12240" xr2:uid="{B5729C80-F964-450C-B0E5-72837C33B520}"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー記録" sheetId="1" r:id="rId1"/>
@@ -275,16 +275,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>仕様書の定期券をICカードのみ</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>テイキケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>データグリッドビューで選択し領収書の発行を行う</t>
     <rPh sb="11" eb="13">
       <t>センタク</t>
@@ -395,6 +385,19 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書に定期券はICカードのみと追加</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>テイキケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -826,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC043C-8932-4DF6-AE1C-0E8E2671C937}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="119" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -943,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
@@ -971,7 +974,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
@@ -985,7 +988,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
@@ -999,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>8</v>
@@ -1013,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>8</v>
@@ -1041,7 +1044,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>8</v>
@@ -1055,7 +1058,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>8</v>

--- a/10_レビュー/レビュー記録_阿部_2025年12月15日.xlsx
+++ b/10_レビュー/レビュー記録_阿部_2025年12月15日.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\sotuken242301\10_レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FC0E45-537C-42FE-92AE-537B25207339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF66FCA8-D590-4EA7-B253-FAAC60C98118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="0" windowWidth="9048" windowHeight="12240" xr2:uid="{B5729C80-F964-450C-B0E5-72837C33B520}"/>
+    <workbookView xWindow="16056" yWindow="84" windowWidth="7356" windowHeight="12240" xr2:uid="{B5729C80-F964-450C-B0E5-72837C33B520}"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー記録" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>参加者</t>
     <rPh sb="0" eb="3">
@@ -275,22 +275,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データグリッドビューで選択し領収書の発行を行う</t>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>リョウシュウショ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>デポジットを支払い金額に追加</t>
     <rPh sb="6" eb="8">
       <t>シハラ</t>
@@ -389,15 +373,74 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>仕様書に定期券はICカードのみと追加</t>
+    <t>終了日を支払い時に表示</t>
+    <rPh sb="4" eb="6">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規定期券購入ICカード発行あり、発行なし</t>
+    <rPh sb="2" eb="7">
+      <t>テイキケンコウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認画面の更新日を削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定期券はICカードのみ</t>
     <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
       <t>テイキケン</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>ツイカ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>領収書発行画面のデータタイムピッカーで選択し領収書の発行を行う</t>
+    <rPh sb="0" eb="3">
+      <t>リョウシュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>リョウシュウショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注意事項の後にタッチ画面を表示</t>
+    <rPh sb="0" eb="4">
+      <t>チュウイジコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -829,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC043C-8932-4DF6-AE1C-0E8E2671C937}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="119" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="92" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -946,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
@@ -974,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
@@ -988,7 +1031,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
@@ -1002,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>8</v>
@@ -1016,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>8</v>
@@ -1044,7 +1087,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>8</v>
@@ -1058,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>8</v>
@@ -1095,7 +1138,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
       <c r="F23" s="4"/>
@@ -1105,7 +1150,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="2"/>
       <c r="F24" s="4"/>
@@ -1115,7 +1162,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="2"/>
       <c r="F25" s="4"/>
@@ -1135,7 +1184,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="4"/>
